--- a/results/ElasticNet_randomsearch-estimator_df.xlsx
+++ b/results/ElasticNet_randomsearch-estimator_df.xlsx
@@ -507,7 +507,7 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f776b2f2370&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f986427c580&gt;),
                 ('model',
                  LogisticRegression(class_weight='balanced', l1_ratio=0.3,
                                     max_iter=1000, penalty='elasticnet',
@@ -516,7 +516,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f776b6d0730&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98e1369400&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -584,7 +584,7 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f776b6d0940&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f98e1369ac0&gt;),
                 ('model',
                  LogisticRegression(class_weight='balanced', l1_ratio=0.01,
                                     max_iter=1000, penalty='elasticnet',
@@ -593,7 +593,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f776b242b20&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98b0e6ca60&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -661,7 +661,7 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f776b2429d0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f98e0ec3c10&gt;),
                 ('model',
                  LogisticRegression(class_weight='balanced', l1_ratio=0.7,
                                     max_iter=1000, penalty='elasticnet',
@@ -670,7 +670,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f776b197280&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98643259d0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -738,7 +738,7 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f776b197610&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f98643252b0&gt;),
                 ('model',
                  LogisticRegression(class_weight='balanced', l1_ratio=0.7,
                                     max_iter=1000, penalty='elasticnet',
@@ -747,7 +747,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f776b197a30&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98e0cef4f0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -816,7 +816,7 @@
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector', None),
                 ('model',
-                 LogisticRegression(class_weight='balanced', l1_ratio=0.95,
+                 LogisticRegression(class_weight='balanced', l1_ratio=0.1,
                                     max_iter=1000, penalty='elasticnet',
                                     random_state=42, solver='saga'))])</t>
         </is>
@@ -833,11 +833,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.95, 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.1, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5562447465637667</v>
+        <v>0.548528176628863</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -848,10 +848,10 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7007709474538447</v>
+        <v>0.6999969365560763</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5440579710144928</v>
+        <v>0.6269841269841269</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0 0 1 1 1 0 0 0 1 0 1 1 0 1 1 0 0 0 0 1 0 1 0 1]</t>
+          <t>[0 0 1 1 1 0 0 0 1 1 1 1 0 1 1 0 0 0 0 1 0 1 1 1]</t>
         </is>
       </c>
     </row>

--- a/results/ElasticNet_randomsearch-estimator_df.xlsx
+++ b/results/ElasticNet_randomsearch-estimator_df.xlsx
@@ -507,16 +507,16 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f986427c580&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b612b3430&gt;),
                 ('model',
-                 LogisticRegression(class_weight='balanced', l1_ratio=0.3,
+                 LogisticRegression(class_weight='balanced', l1_ratio=0.7,
                                     max_iter=1000, penalty='elasticnet',
                                     random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98e1369400&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b612b3af0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -526,11 +526,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.3, 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.7, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5651691889570474</v>
+        <v>0.6517944412566837</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -538,22 +538,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6373843460865216</v>
+        <v>0.6430859674212038</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4534180278281911</v>
+        <v>0.4928571428571429</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
+          <t>[1 1 1 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[1 1 0 1 1 0 1 1 0 1 1 0 1 1 1 0 1 0 1 0 0 0 1 1]</t>
+          <t>[0 0 0 1 0 1 1 1 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0]</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98e1369ac0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b612b3e20&gt;),
                 ('model',
                  LogisticRegression(class_weight='balanced', l1_ratio=0.01,
                                     max_iter=1000, penalty='elasticnet',
@@ -593,7 +593,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98b0e6ca60&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b618790a0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5930689717943723</v>
+        <v>0.5689400614865011</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -618,19 +618,19 @@
         <v>69</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6480667423845083</v>
+        <v>0.6416567104739147</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.529189352692075</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
+          <t>[0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 0 1 0 1 0 0 1 0 1 1 1 1 1 0 0 0 0 1]</t>
+          <t>[0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 1 1]</t>
         </is>
       </c>
     </row>
@@ -639,6 +639,83 @@
         <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b61879610&gt;),
+                ('model',
+                 LogisticRegression(class_weight='balanced', l1_ratio=0.95,
+                                    max_iter=1000, penalty='elasticnet',
+                                    random_state=42, solver='saga'))])</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5ae82ed0d0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.95, 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.631574405089683</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6544682389084666</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4999999999999998</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[0 0 0 1 1 1 0 1 0 0 1 1 0 1 1 1 0 0 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler',
                  ColumnTransformer(n_jobs=-1, remainder='passthrough',
@@ -661,16 +738,16 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98e0ec3c10&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5ae82ed2b0&gt;),
                 ('model',
-                 LogisticRegression(class_weight='balanced', l1_ratio=0.7,
+                 LogisticRegression(class_weight='balanced', l1_ratio=0.99,
                                     max_iter=1000, penalty='elasticnet',
                                     random_state=42, solver='saga'))])</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98643259d0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b6144ee80&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -680,42 +757,42 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.7, 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5289207091199284</v>
-      </c>
-      <c r="E4" t="inlineStr">
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.99, 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.585133905444849</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Random</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>23</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.5933841099163679</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5376811594202898</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 1 0 0 1 1 1 0 0 1 1 1 1 1 0 0 0 0 0 0]</t>
+      <c r="F5" t="n">
+        <v>42</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5476519129782446</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[1 0 0 0 0 1 0 1 1 1 0 0 1 1 0 0 0 1 0 1 0 1 0 1]</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler',
                  ColumnTransformer(n_jobs=-1, remainder='passthrough',
@@ -738,16 +815,16 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98643252b0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b61667f10&gt;),
                 ('model',
-                 LogisticRegression(class_weight='balanced', l1_ratio=0.7,
+                 LogisticRegression(class_weight='balanced', l1_ratio=0.98,
                                     max_iter=1000, penalty='elasticnet',
                                     random_state=42, solver='saga'))])</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98e0cef4f0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b6163a430&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -757,87 +834,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.7, 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5790592345391107</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>99</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.5505824372759857</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.4714285714285714</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler',
-                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                                   transformers=[('StandardScaler',
-                                                  StandardScaler(),
-                                                  ['AE_HR', 'AE_V',
-                                                   'AbsOffAxis_HR',
-                                                   'AbsOffAxis_V',
-                                                   'AbsOnAxis_HR',
-                                                   'AbsOnAxis_V', 'BallPath_HR',
-                                                   'BallPath_V', 'CMT_HR',
-                                                   'CMT_V', 'Corrective_HR',
-                                                   'Corrective_V', 'Delta_AE',
-                                                   'Delta_Fullpath', 'Delta_MT',
-                                                   'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'Delta_PV',
-                                                   'Delta_RT', 'FullPath_HR',
-                                                   'FullPath_V', 'MT_HR',
-                                                   'MT_V', 'PeakV_HR',
-                                                   'PeakV_V', 'RT_HR', 'RT_V',
-                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', None),
-                ('model',
-                 LogisticRegression(class_weight='balanced', l1_ratio=0.1,
-                                    max_iter=1000, penalty='elasticnet',
-                                    random_state=42, solver='saga'))])</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                  transformers=[('StandardScaler', StandardScaler(),
-                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
-                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
-                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
-                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
-                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
-                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
-                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
-                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.1, 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.98, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.548528176628863</v>
+        <v>0.5320300691740319</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -848,19 +849,19 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6999969365560763</v>
+        <v>0.6099074018035465</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6269841269841269</v>
+        <v>0.4554673721340389</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 0 1 0]</t>
+          <t>[1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0 0 1 1 1 0 0 0 1 1 1 1 0 1 1 0 0 0 0 1 0 1 1 1]</t>
+          <t>[0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 1]</t>
         </is>
       </c>
     </row>
